--- a/CrossPlatformOrder/Default.xlsx
+++ b/CrossPlatformOrder/Default.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="AOS_ProductOrder {AOS_Actions}" sheetId="2" r:id="rId2"/>
+    <sheet name="SAP_Login {SAP_Units}" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -469,9 +470,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
@@ -486,16 +489,35 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="15.1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CrossPlatformOrder/Default.xlsx
+++ b/CrossPlatformOrder/Default.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="AOS_ProductOrder {AOS_Actions}" sheetId="2" r:id="rId2"/>
     <sheet name="SAP_Login {SAP_Units}" sheetId="3" r:id="rId3"/>
+    <sheet name="VA01 {SAP_Units}" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -508,7 +509,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -521,4 +522,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CrossPlatformOrder/Default.xlsx
+++ b/CrossPlatformOrder/Default.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="AOS_ProductOrder {AOS_Actions}" sheetId="2" r:id="rId2"/>
-    <sheet name="SAP_Login {SAP_Units}" sheetId="3" r:id="rId3"/>
-    <sheet name="VA01 {SAP_Units}" sheetId="4" r:id="rId4"/>
+    <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="AOS_Login {AOS_Actions}" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -477,7 +476,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
@@ -509,7 +508,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -522,23 +521,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CrossPlatformOrder/Default.xlsx
+++ b/CrossPlatformOrder/Default.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Action1" sheetId="2" r:id="rId2"/>
     <sheet name="AOS_Login {AOS_Actions}" sheetId="3" r:id="rId3"/>
+    <sheet name="AOS_ProductOrder {AOS_Actions}" sheetId="4" r:id="rId4"/>
+    <sheet name="SAP_Login {SAP_Units}" sheetId="5" r:id="rId5"/>
+    <sheet name="VA01 {SAP_Units}" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -508,6 +511,63 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/CrossPlatformOrder/Default.xlsx
+++ b/CrossPlatformOrder/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,19 @@
     <sheet name="AOS_ProductOrder {AOS_Actions}" sheetId="4" r:id="rId4"/>
     <sheet name="SAP_Login {SAP_Units}" sheetId="5" r:id="rId5"/>
     <sheet name="VA01 {SAP_Units}" sheetId="6" r:id="rId6"/>
+    <sheet name="SAP_Logout {SAP_Units}" sheetId="7" r:id="rId7"/>
+    <sheet name="Shipping_Login {Shipping_Units}" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+  <si>
+    <t>OrderNumberShipping</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,16 +489,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
+    <col min="1" max="1" width="9.2421875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="1" ht="15.1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -507,7 +541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -526,7 +560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -545,7 +579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -564,7 +598,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
